--- a/每週買賣報表/買進/每週買進總表2022-09-20.xlsx
+++ b/每週買賣報表/買進/每週買進總表2022-09-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>關鍵點買進</t>
   </si>
@@ -37,100 +37,13 @@
     <t>空單放空</t>
   </si>
   <si>
-    <t>1232</t>
-  </si>
-  <si>
-    <t>1784</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2467</t>
-  </si>
-  <si>
-    <t>2483</t>
-  </si>
-  <si>
-    <t>2536</t>
-  </si>
-  <si>
-    <t>4119</t>
-  </si>
-  <si>
-    <t>4155</t>
-  </si>
-  <si>
-    <t>5403</t>
-  </si>
-  <si>
-    <t>5434</t>
-  </si>
-  <si>
-    <t>6146</t>
-  </si>
-  <si>
-    <t>6245</t>
-  </si>
-  <si>
-    <t>6432</t>
-  </si>
-  <si>
-    <t>6613</t>
-  </si>
-  <si>
-    <t>2031</t>
-  </si>
-  <si>
-    <t>1321</t>
-  </si>
-  <si>
-    <t>1817</t>
-  </si>
-  <si>
-    <t>3679</t>
-  </si>
-  <si>
-    <t>4190</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>5015</t>
-  </si>
-  <si>
-    <t>5225</t>
-  </si>
-  <si>
-    <t>6139</t>
-  </si>
-  <si>
-    <t>6612</t>
-  </si>
-  <si>
-    <t>8163</t>
-  </si>
-  <si>
-    <t>1762</t>
-  </si>
-  <si>
-    <t>2034</t>
-  </si>
-  <si>
-    <t>3221</t>
-  </si>
-  <si>
-    <t>4721</t>
-  </si>
-  <si>
-    <t>4739</t>
-  </si>
-  <si>
-    <t>6180</t>
-  </si>
-  <si>
-    <t>6491</t>
+    <t>1308</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>6147</t>
   </si>
 </sst>
 </file>
@@ -488,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -521,172 +434,14 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
         <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
